--- a/artfynd/A 35273-2025 artfynd.xlsx
+++ b/artfynd/A 35273-2025 artfynd.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY56"/>
+  <dimension ref="A1:AY59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6624,6 +6624,358 @@
       </c>
       <c r="AY56" t="inlineStr"/>
     </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>131269236</v>
+      </c>
+      <c r="B57" t="n">
+        <v>57073</v>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E57" t="n">
+        <v>100138</v>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Tjäder</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>Tetrao urogallus</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>Linnaeus, 1758</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>hona</t>
+        </is>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>födosökande</t>
+        </is>
+      </c>
+      <c r="N57" t="inlineStr"/>
+      <c r="P57" t="inlineStr">
+        <is>
+          <t>Risten-Mulstad, Ög</t>
+        </is>
+      </c>
+      <c r="Q57" t="n">
+        <v>560702</v>
+      </c>
+      <c r="R57" t="n">
+        <v>6463712</v>
+      </c>
+      <c r="S57" t="n">
+        <v>10</v>
+      </c>
+      <c r="T57" t="inlineStr">
+        <is>
+          <t>Östergötland</t>
+        </is>
+      </c>
+      <c r="U57" t="inlineStr">
+        <is>
+          <t>Åtvidaberg</t>
+        </is>
+      </c>
+      <c r="V57" t="inlineStr">
+        <is>
+          <t>Östergötland</t>
+        </is>
+      </c>
+      <c r="W57" t="inlineStr">
+        <is>
+          <t>Björsäter</t>
+        </is>
+      </c>
+      <c r="Y57" t="inlineStr">
+        <is>
+          <t>2026-02-12</t>
+        </is>
+      </c>
+      <c r="AA57" t="inlineStr">
+        <is>
+          <t>2026-02-12</t>
+        </is>
+      </c>
+      <c r="AD57" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE57" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG57" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT57" t="inlineStr"/>
+      <c r="AW57" t="inlineStr">
+        <is>
+          <t>Steve Daurer</t>
+        </is>
+      </c>
+      <c r="AX57" t="inlineStr">
+        <is>
+          <t>Steve Daurer</t>
+        </is>
+      </c>
+      <c r="AY57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>131269217</v>
+      </c>
+      <c r="B58" t="n">
+        <v>58043</v>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E58" t="n">
+        <v>103021</v>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Talltita</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>Poecile montanus</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>(Conrad von Baldenstein, 1827)</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="L58" t="inlineStr"/>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>permanent revir</t>
+        </is>
+      </c>
+      <c r="N58" t="inlineStr"/>
+      <c r="P58" t="inlineStr">
+        <is>
+          <t>Risten-Mulstad, Ög</t>
+        </is>
+      </c>
+      <c r="Q58" t="n">
+        <v>560808</v>
+      </c>
+      <c r="R58" t="n">
+        <v>6463646</v>
+      </c>
+      <c r="S58" t="n">
+        <v>10</v>
+      </c>
+      <c r="T58" t="inlineStr">
+        <is>
+          <t>Östergötland</t>
+        </is>
+      </c>
+      <c r="U58" t="inlineStr">
+        <is>
+          <t>Åtvidaberg</t>
+        </is>
+      </c>
+      <c r="V58" t="inlineStr">
+        <is>
+          <t>Östergötland</t>
+        </is>
+      </c>
+      <c r="W58" t="inlineStr">
+        <is>
+          <t>Björsäter</t>
+        </is>
+      </c>
+      <c r="Y58" t="inlineStr">
+        <is>
+          <t>2026-02-12</t>
+        </is>
+      </c>
+      <c r="AA58" t="inlineStr">
+        <is>
+          <t>2026-02-12</t>
+        </is>
+      </c>
+      <c r="AC58" t="inlineStr">
+        <is>
+          <t>Revirparet</t>
+        </is>
+      </c>
+      <c r="AD58" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE58" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG58" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT58" t="inlineStr"/>
+      <c r="AW58" t="inlineStr">
+        <is>
+          <t>Steve Daurer</t>
+        </is>
+      </c>
+      <c r="AX58" t="inlineStr">
+        <is>
+          <t>Steve Daurer</t>
+        </is>
+      </c>
+      <c r="AY58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>131269222</v>
+      </c>
+      <c r="B59" t="n">
+        <v>57881</v>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E59" t="n">
+        <v>100049</v>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Spillkråka</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>Dryocopus martius</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>hane</t>
+        </is>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>permanent revir</t>
+        </is>
+      </c>
+      <c r="N59" t="inlineStr"/>
+      <c r="P59" t="inlineStr">
+        <is>
+          <t>Risten-Mulstad, Ög</t>
+        </is>
+      </c>
+      <c r="Q59" t="n">
+        <v>560838</v>
+      </c>
+      <c r="R59" t="n">
+        <v>6463567</v>
+      </c>
+      <c r="S59" t="n">
+        <v>10</v>
+      </c>
+      <c r="T59" t="inlineStr">
+        <is>
+          <t>Östergötland</t>
+        </is>
+      </c>
+      <c r="U59" t="inlineStr">
+        <is>
+          <t>Åtvidaberg</t>
+        </is>
+      </c>
+      <c r="V59" t="inlineStr">
+        <is>
+          <t>Östergötland</t>
+        </is>
+      </c>
+      <c r="W59" t="inlineStr">
+        <is>
+          <t>Björsäter</t>
+        </is>
+      </c>
+      <c r="Y59" t="inlineStr">
+        <is>
+          <t>2026-02-12</t>
+        </is>
+      </c>
+      <c r="AA59" t="inlineStr">
+        <is>
+          <t>2026-02-12</t>
+        </is>
+      </c>
+      <c r="AD59" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE59" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG59" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT59" t="inlineStr"/>
+      <c r="AW59" t="inlineStr">
+        <is>
+          <t>Steve Daurer</t>
+        </is>
+      </c>
+      <c r="AX59" t="inlineStr">
+        <is>
+          <t>Steve Daurer</t>
+        </is>
+      </c>
+      <c r="AY59" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/artfynd/A 35273-2025 artfynd.xlsx
+++ b/artfynd/A 35273-2025 artfynd.xlsx
@@ -1191,7 +1191,7 @@
         <v>127354741</v>
       </c>
       <c r="B7" t="n">
-        <v>57669</v>
+        <v>57881</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1649,7 +1649,7 @@
         <v>127359896</v>
       </c>
       <c r="B11" t="n">
-        <v>57669</v>
+        <v>57881</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1767,7 +1767,7 @@
         <v>127360624</v>
       </c>
       <c r="B12" t="n">
-        <v>57669</v>
+        <v>57881</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -2217,7 +2217,7 @@
         <v>127359646</v>
       </c>
       <c r="B16" t="n">
-        <v>57669</v>
+        <v>57881</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2542,7 +2542,7 @@
         <v>127355403</v>
       </c>
       <c r="B19" t="n">
-        <v>57669</v>
+        <v>57881</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2761,7 +2761,7 @@
         <v>127382193</v>
       </c>
       <c r="B21" t="n">
-        <v>57669</v>
+        <v>57881</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -3907,7 +3907,7 @@
         <v>127360220</v>
       </c>
       <c r="B32" t="n">
-        <v>57669</v>
+        <v>57881</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -4029,7 +4029,7 @@
         <v>127381955</v>
       </c>
       <c r="B33" t="n">
-        <v>57669</v>
+        <v>57881</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -4771,7 +4771,7 @@
         <v>127360176</v>
       </c>
       <c r="B40" t="n">
-        <v>57669</v>
+        <v>57881</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4989,7 +4989,7 @@
         <v>127355339</v>
       </c>
       <c r="B42" t="n">
-        <v>57669</v>
+        <v>57881</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -5229,7 +5229,7 @@
         <v>127381965</v>
       </c>
       <c r="B44" t="n">
-        <v>57669</v>
+        <v>57881</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>

--- a/artfynd/A 35273-2025 artfynd.xlsx
+++ b/artfynd/A 35273-2025 artfynd.xlsx
@@ -1309,7 +1309,7 @@
         <v>127355148</v>
       </c>
       <c r="B8" t="n">
-        <v>57685</v>
+        <v>57897</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -5347,7 +5347,7 @@
         <v>127360121</v>
       </c>
       <c r="B45" t="n">
-        <v>57685</v>
+        <v>57897</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
